--- a/data/case1/14/Q_device_6.xlsx
+++ b/data/case1/14/Q_device_6.xlsx
@@ -62,34 +62,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.036175201025500633</v>
+        <v>-0.050840816311689387</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.035885162967284528</v>
+        <v>-0.043126609670307188</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.065790258798523724</v>
+        <v>-0.059421440580177953</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.01515396998712616</v>
+        <v>-0.013588820181848886</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.012391928977400834</v>
+        <v>-0.012679583874133631</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.048278035883404936</v>
+        <v>-0.035733986014339927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.042759154030344228</v>
+        <v>0.043744225914486616</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.042759154066403827</v>
+        <v>-0.043744225934178115</v>
       </c>
     </row>
   </sheetData>
